--- a/experiment/quiz_questions.xlsx
+++ b/experiment/quiz_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Question Type</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Question ID</t>
+          <t>Question</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Question</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Correct Answer</t>
         </is>
@@ -468,22 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Which of the following is a unifying theme in biology?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>multiple choice question</t>
+          <t>a: Evolution | b: Chemistry | c: Physics | d: Geology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'a': 'choice here', 'b': 'choice here', 'c': 'choice here', 'd': 'choice here'}</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>correct answer</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -495,22 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>What is the importance of energy processing in living organisms?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>multiple choice question</t>
+          <t>a: It allows organisms to communicate | b: It helps organisms regulate their internal environments | c: It enables organisms to move, grow, and reproduce | d: It controls the genetic information in organisms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'a': 'choice here', 'b': 'choice here', 'c': 'choice here', 'd': 'choice here'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>correct answer</t>
+          <t>c</t>
         </is>
       </c>
     </row>
@@ -522,219 +507,161 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Which of the following is not a eukaryotic organism?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>multiple choice question</t>
+          <t>a: Protist | b: Bacteria | c: Plant | d: Fungi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'a': 'choice here', 'b': 'choice here', 'c': 'choice here', 'd': 'choice here'}</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>correct answer</t>
+          <t>b</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three Marks</t>
+          <t>MCQ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>What is the main tool that biologists use to study life?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Three marks question here</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>a: Microscope | b: Calculator | c: Telescope | d: Compass</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Marks</t>
+          <t>MCQ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Which level of organization in biology involves the study of populations?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Three marks question here</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>a: Molecular biology | b: Physiology | c: Ecology | d: Anatomy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Five Marks</t>
+          <t>Three Marks</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Five marks question here</t>
-        </is>
-      </c>
+          <t>Explain the significance of evolution in the unity and diversity of life.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Five Marks</t>
+          <t>Three Marks</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Five marks question here</t>
-        </is>
-      </c>
+          <t>Describe the process of energy processing in living organisms and its importance.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MCQ</t>
+          <t>Three Marks</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>multiple choice question</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>{'a': 'choice here', 'b': 'choice here', 'c': 'choice here', 'd': 'choice here'}</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>correct answer</t>
-        </is>
-      </c>
+          <t>Discuss the role of cells in processing hereditary information encoded in genes.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MCQ</t>
+          <t>Three Marks</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>multiple choice question</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>{'a': 'choice here', 'b': 'choice here', 'c': 'choice here', 'd': 'choice here'}</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>correct answer</t>
-        </is>
-      </c>
+          <t>Explain the concept of biodiversity and its importance in an ecosystem.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MCQ</t>
+          <t>Three Marks</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>multiple choice question</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>{'a': 'choice here', 'b': 'choice here', 'c': 'choice here', 'd': 'choice here'}</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>correct answer</t>
-        </is>
-      </c>
+          <t>Describe how biologists use the scientific method in their research.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Three Marks</t>
+          <t>Five Marks</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Three marks question here</t>
-        </is>
-      </c>
+          <t>Discuss the different subdisciplines within biology and provide examples of each.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Three Marks</t>
+          <t>Five Marks</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Three marks question here</t>
-        </is>
-      </c>
+          <t>Explain the process of classification of organisms in biology and its significance.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -744,16 +671,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Five marks question here</t>
-        </is>
-      </c>
+          <t>Describe the diversity of life on Earth and the role of various organisms in an ecosystem.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -763,16 +685,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Five marks question here</t>
-        </is>
-      </c>
+          <t>Discuss the concept of internal environment regulation in organisms and its importance.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Five Marks</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Explain the concept of cells as the basic unit of life and their role in the functioning of organisms.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
